--- a/main code/data/뽐뿌.xlsx
+++ b/main code/data/뽐뿌.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(급해요 ㅠㅠ)BHC 치킨 추천 메뉴 좀 부탁드려요.</t>
+          <t>그해우리는 궁금</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 2 </t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -494,28 +494,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>생굴 2kg(다섯근)</t>
+          <t>24시 영업 선언했던 카페, 압수수색 ㅋㅋ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>848</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve"> 15 </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -524,26 +522,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아파트 10억 오르고 1억 내렸다고 죽는소리</t>
+          <t>저는 바보였네요 ㅎㅎ;;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4 </t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -552,26 +550,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>망할 뚜레쥬르륵!!!</t>
+          <t>방송인 최욱 K리그 조작하라고 한 후 또 망언했네요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8 </t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -580,17 +578,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>날씨가 우중충하네요</t>
+          <t>뽐게보고 티몬에서산 1+1 수면바지 괜찮네요.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -606,22 +604,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>선박 수주 개선현대삼호중 올해 149명 채용</t>
+          <t>CJ택배 파업이네요</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -634,23 +632,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>매운걸 잘먹고싶네요 ㅜㅜ</t>
+          <t>당 땡길때 먹어보세요</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 16:34</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 </t>
-        </is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -662,22 +658,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>아는 동생과 낮술하다 내기했습니다. 투표 좀 해주세요!!!</t>
+          <t>영화 돈룩업 진짜 잘만든거 같아요</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -690,22 +686,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3차 화이자 5일차</t>
+          <t>남페미 페북 대참사</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:32</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>647</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -718,22 +714,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>처음으로 나이키 조던 당첨됐는데...</t>
+          <t>고요바다보다가 갑자기 궁금해서요..;;</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>258</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
+          <t xml:space="preserve"> 3 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -746,22 +742,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>다이어리 쓰시나요?</t>
+          <t>10억 vs 징역 4년ㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -774,23 +770,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>새해 결심상품 '특수'</t>
+          <t>인제군, 귀둔농공단지 교육 서비스업 추가</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -802,17 +796,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>드디어 다 봤어요. 오징어 게임과 지옥</t>
+          <t>택배가 왜 안오나 했더니 파업이군요</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,22 +824,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>웨이브 넷플 티빙 중에서 보통 어떤거 쓰시나요 ?</t>
+          <t>쿠팡 로켓배송 기존회원 2900원 유지라네요</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>768</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -858,23 +852,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>스쿠터나 오토바이도 비싸네요 ㄷㄷㄷ</t>
+          <t>도미노피자 포장 50프로 할인</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 </t>
-        </is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -886,23 +878,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>취준생인데 숏컷이네요?</t>
+          <t>최근 데탑 맞추신분 있나요??</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 16:28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18 </t>
-        </is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -914,22 +904,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>고요의바다 볼려고하는데 재밌나요</t>
+          <t>센스맘매트리스 생각보다 별로네요</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>184</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -942,22 +932,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1995년 스포츠게임 가격  [피파95, NBA 라이브95]</t>
+          <t>맥날 바닐라 라떼 쿠폰 많이 모았네요.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>436</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -970,22 +960,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>보초 운전 차량 발견 ㅋㅋㅋㅋ</t>
+          <t>가격이 두배가까이 뛰는건 또 처음보네요</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>881</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -998,22 +988,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>신분증 안들고다니는분들 계시나요?</t>
+          <t>송소희한테 진심인 이찬혁 ㄷㄷㄷ.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1026,26 +1016,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>플랫 휴대폰의 위대한 장점, 파지의 자유</t>
+          <t>혼인율 급락으로 국가 기간산업이 박살날거라는 말도 있더군요</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>582</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3 </t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 12 </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1054,26 +1046,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>간만에 카레 만들어서 먹어야겠네요</t>
+          <t>와 이논리 진짜 신박하네요....</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:21</t>
+          <t>2021.12.29 16:23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>540</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 </t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1082,22 +1076,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>전기요금 인상과 관련해서 한전이 장난질 쳤나보네요..</t>
+          <t>송년이라고 우주패스 첫 가입시 12,000 포인트 주네요</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>890</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1110,22 +1104,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>평일 낮인데 벌써 주문 폭주인듯..</t>
+          <t>아이 뮤지컬 관람</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:19</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1754</t>
+          <t>176</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
+          <t xml:space="preserve"> 4 </t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1138,21 +1132,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>눈길 위, 기사님의 신들린 운전</t>
+          <t>멤버쉽 신규 비용 올리는 경우 기존 가입자 요금은 그대로 유지하는 경우도 있나요?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:18</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>387</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1164,22 +1160,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>베트남에서 박항서 받은 이유가..</t>
+          <t>슈퍼클럽 마지막 썼네요</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:17</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 1 </t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1192,25 +1188,333 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>움짤로 유명했던 시바견 근황...gif</t>
+          <t>쿠팡 곧 오르겠다 싶긴했어요</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:16</t>
+          <t>2021.12.29 16:18</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 5 </t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>쿠팡 가입해놔야 하나요 일단 기존회원은 유지</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>현재 각종 커뮤니티에서 폭발적인 반응을 보이는 핫한 월세 계산문제.. jpg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 42 </t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25만원 받은 재난지원금 궁금한게 있습니다.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:16</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>¿Í¿ìÄíÆÎ ¸â¹ö½ÊÀ» À¯Æ©ºê ÇÁ¸®¹Ì¾ö¶§Ã³·³ ÇßÀ¸¸é ÁÁ°Ú³×¿ä.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:15</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¿Í¿ì°¡ ¸Å¿ù 31ÀÏ °áÁ¦ÀÎµ¥.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>¾ÖÇÃÀº ÆùÄÉÀÌ½º±îÁö ºñ½Î³×¿ä</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¿Í¿ì¸â¹ö½Ê ¿ä±Ý ÀÎ»ó..</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ÄíÆÎ ¸â¹ö½± ÀÎ»ó</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>°£Â«»Í¿¡ °è¶õÈÄ¶óÀÌ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>°Ü¿ï¿¡ ¾ÆÆÄÆ® º£¶õ´ÙÀÇ ¼¼Å¹±â ¶§¹®¿¡ ¿ª·ùÇÏ´Â ÀÌÀ¯</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:11</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ÇÇÀÚÇê ÇÁ¸®¹Ì¾ö ¹¹°¡ Á¦ÀÏ ¸À³ª³ª¿ä</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="F39" t="n">
         <v>0</v>
       </c>
     </row>
